--- a/Data/database_master.xlsx
+++ b/Data/database_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\createDataBaseMaster\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\generateDatabaseMaster\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A142352-8211-4BD7-8578-CF5D333A70B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571CE7B-4013-455E-8EC5-6FE1FDB1BF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="2750" windowWidth="14350" windowHeight="6850" xr2:uid="{034490C9-3DD2-4012-9C57-A5B2846511FD}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="17780" windowHeight="6850" xr2:uid="{034490C9-3DD2-4012-9C57-A5B2846511FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5245,8 +5245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E914BF94-E5AD-44E9-851B-1C4A9BB25206}">
   <dimension ref="A1:AX581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2:AX581"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
